--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c205_I3_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c205_I3_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1256" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2512" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="2">
+      <c r="C3" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -419,10 +431,10 @@
       <c r="I10">
         <f>((C10-C9)^2+(D10- D9)^2)^.5</f>
       </c>
-      <c r="J10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K10" s="2" t="s">
+      <c r="J10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K10" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L10" t="n">
@@ -466,28 +478,28 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s" s="2">
+      <c r="A12" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B12" t="s" s="2">
+      <c r="B12" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C12" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D12" t="s" s="2">
+      <c r="C12" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E12" t="s" s="2">
+      <c r="E12" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F12" t="s" s="2">
+      <c r="F12" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G12" t="s" s="2">
+      <c r="G12" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H12" t="s" s="2">
+      <c r="H12" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -512,28 +524,28 @@
       </c>
     </row>
     <row r="14">
-      <c r="B14" t="s" s="2">
+      <c r="B14" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C14" t="s" s="2">
+      <c r="C14" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D14" t="s" s="2">
+      <c r="D14" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E14" t="s" s="2">
+      <c r="E14" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F14" t="s" s="2">
+      <c r="F14" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G14" t="s" s="2">
+      <c r="G14" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H14" t="s" s="2">
+      <c r="H14" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I14" t="s" s="2">
+      <c r="I14" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -708,10 +720,10 @@
       <c r="I20">
         <f>((C20-C19)^2+(D20- D19)^2)^.5</f>
       </c>
-      <c r="J20" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K20" s="2" t="s">
+      <c r="J20" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K20" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L20" t="n">
@@ -755,28 +767,28 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="s" s="2">
+      <c r="A22" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B22" t="s" s="2">
+      <c r="B22" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C22" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D22" t="s" s="2">
+      <c r="C22" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D22" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E22" t="s" s="2">
+      <c r="E22" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F22" t="s" s="2">
+      <c r="F22" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G22" t="s" s="2">
+      <c r="G22" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H22" t="s" s="2">
+      <c r="H22" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -801,28 +813,28 @@
       </c>
     </row>
     <row r="24">
-      <c r="B24" t="s" s="2">
+      <c r="B24" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C24" t="s" s="2">
+      <c r="C24" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D24" t="s" s="2">
+      <c r="D24" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E24" t="s" s="2">
+      <c r="E24" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F24" t="s" s="2">
+      <c r="F24" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G24" t="s" s="2">
+      <c r="G24" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H24" t="s" s="2">
+      <c r="H24" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I24" t="s" s="2">
+      <c r="I24" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -968,10 +980,10 @@
       <c r="I29">
         <f>((C29-C28)^2+(D29- D28)^2)^.5</f>
       </c>
-      <c r="J29" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K29" s="2" t="s">
+      <c r="J29" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K29" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L29" t="n">
@@ -1015,28 +1027,28 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="s" s="2">
+      <c r="A31" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B31" t="s" s="2">
+      <c r="B31" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C31" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D31" t="s" s="2">
+      <c r="C31" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D31" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E31" t="s" s="2">
+      <c r="E31" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F31" t="s" s="2">
+      <c r="F31" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G31" t="s" s="2">
+      <c r="G31" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H31" t="s" s="2">
+      <c r="H31" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1061,28 +1073,28 @@
       </c>
     </row>
     <row r="33">
-      <c r="B33" t="s" s="2">
+      <c r="B33" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C33" t="s" s="2">
+      <c r="C33" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D33" t="s" s="2">
+      <c r="D33" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E33" t="s" s="2">
+      <c r="E33" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F33" t="s" s="2">
+      <c r="F33" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G33" t="s" s="2">
+      <c r="G33" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H33" t="s" s="2">
+      <c r="H33" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I33" t="s" s="2">
+      <c r="I33" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1228,10 +1240,10 @@
       <c r="I38">
         <f>((C38-C37)^2+(D38- D37)^2)^.5</f>
       </c>
-      <c r="J38" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K38" s="2" t="s">
+      <c r="J38" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K38" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L38" t="n">
@@ -1275,28 +1287,28 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="s" s="2">
+      <c r="A40" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B40" t="s" s="2">
+      <c r="B40" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C40" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D40" t="s" s="2">
+      <c r="C40" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D40" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E40" t="s" s="2">
+      <c r="E40" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F40" t="s" s="2">
+      <c r="F40" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G40" t="s" s="2">
+      <c r="G40" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H40" t="s" s="2">
+      <c r="H40" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1321,28 +1333,28 @@
       </c>
     </row>
     <row r="42">
-      <c r="B42" t="s" s="2">
+      <c r="B42" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C42" t="s" s="2">
+      <c r="C42" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D42" t="s" s="2">
+      <c r="D42" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E42" t="s" s="2">
+      <c r="E42" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F42" t="s" s="2">
+      <c r="F42" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G42" t="s" s="2">
+      <c r="G42" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H42" t="s" s="2">
+      <c r="H42" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I42" t="s" s="2">
+      <c r="I42" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1459,10 +1471,10 @@
       <c r="I46">
         <f>((C46-C45)^2+(D46- D45)^2)^.5</f>
       </c>
-      <c r="J46" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K46" s="2" t="s">
+      <c r="J46" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K46" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L46" t="n">
@@ -1506,28 +1518,28 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="s" s="2">
+      <c r="A48" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B48" t="s" s="2">
+      <c r="B48" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C48" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D48" t="s" s="2">
+      <c r="C48" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D48" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E48" t="s" s="2">
+      <c r="E48" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F48" t="s" s="2">
+      <c r="F48" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G48" t="s" s="2">
+      <c r="G48" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H48" t="s" s="2">
+      <c r="H48" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1552,28 +1564,28 @@
       </c>
     </row>
     <row r="50">
-      <c r="B50" t="s" s="2">
+      <c r="B50" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C50" t="s" s="2">
+      <c r="C50" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D50" t="s" s="2">
+      <c r="D50" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E50" t="s" s="2">
+      <c r="E50" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F50" t="s" s="2">
+      <c r="F50" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G50" t="s" s="2">
+      <c r="G50" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H50" t="s" s="2">
+      <c r="H50" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I50" t="s" s="2">
+      <c r="I50" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1690,10 +1702,10 @@
       <c r="I54">
         <f>((C54-C53)^2+(D54- D53)^2)^.5</f>
       </c>
-      <c r="J54" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K54" s="2" t="s">
+      <c r="J54" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K54" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L54" t="n">
@@ -1737,28 +1749,28 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="s" s="2">
+      <c r="A56" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B56" t="s" s="2">
+      <c r="B56" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C56" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D56" t="s" s="2">
+      <c r="C56" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D56" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E56" t="s" s="2">
+      <c r="E56" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F56" t="s" s="2">
+      <c r="F56" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G56" t="s" s="2">
+      <c r="G56" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H56" t="s" s="2">
+      <c r="H56" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1783,28 +1795,28 @@
       </c>
     </row>
     <row r="58">
-      <c r="B58" t="s" s="2">
+      <c r="B58" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C58" t="s" s="2">
+      <c r="C58" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D58" t="s" s="2">
+      <c r="D58" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E58" t="s" s="2">
+      <c r="E58" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F58" t="s" s="2">
+      <c r="F58" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G58" t="s" s="2">
+      <c r="G58" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H58" t="s" s="2">
+      <c r="H58" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I58" t="s" s="2">
+      <c r="I58" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1921,10 +1933,10 @@
       <c r="I62">
         <f>((C62-C61)^2+(D62- D61)^2)^.5</f>
       </c>
-      <c r="J62" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K62" s="2" t="s">
+      <c r="J62" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K62" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L62" t="n">
@@ -1968,28 +1980,28 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="s" s="2">
+      <c r="A64" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B64" t="s" s="2">
+      <c r="B64" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C64" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D64" t="s" s="2">
+      <c r="C64" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D64" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E64" t="s" s="2">
+      <c r="E64" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F64" t="s" s="2">
+      <c r="F64" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G64" t="s" s="2">
+      <c r="G64" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H64" t="s" s="2">
+      <c r="H64" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2014,28 +2026,28 @@
       </c>
     </row>
     <row r="66">
-      <c r="B66" t="s" s="2">
+      <c r="B66" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C66" t="s" s="2">
+      <c r="C66" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D66" t="s" s="2">
+      <c r="D66" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E66" t="s" s="2">
+      <c r="E66" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F66" t="s" s="2">
+      <c r="F66" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G66" t="s" s="2">
+      <c r="G66" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H66" t="s" s="2">
+      <c r="H66" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I66" t="s" s="2">
+      <c r="I66" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2152,10 +2164,10 @@
       <c r="I70">
         <f>((C70-C69)^2+(D70- D69)^2)^.5</f>
       </c>
-      <c r="J70" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K70" s="2" t="s">
+      <c r="J70" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K70" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L70" t="n">
@@ -2199,28 +2211,28 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="s" s="2">
+      <c r="A72" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B72" t="s" s="2">
+      <c r="B72" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C72" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D72" t="s" s="2">
+      <c r="C72" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D72" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E72" t="s" s="2">
+      <c r="E72" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F72" t="s" s="2">
+      <c r="F72" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G72" t="s" s="2">
+      <c r="G72" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H72" t="s" s="2">
+      <c r="H72" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2245,28 +2257,28 @@
       </c>
     </row>
     <row r="74">
-      <c r="B74" t="s" s="2">
+      <c r="B74" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C74" t="s" s="2">
+      <c r="C74" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D74" t="s" s="2">
+      <c r="D74" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E74" t="s" s="2">
+      <c r="E74" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F74" t="s" s="2">
+      <c r="F74" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G74" t="s" s="2">
+      <c r="G74" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H74" t="s" s="2">
+      <c r="H74" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I74" t="s" s="2">
+      <c r="I74" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2383,10 +2395,10 @@
       <c r="I78">
         <f>((C78-C77)^2+(D78- D77)^2)^.5</f>
       </c>
-      <c r="J78" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K78" s="2" t="s">
+      <c r="J78" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K78" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L78" t="n">
@@ -2430,28 +2442,28 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="s" s="2">
+      <c r="A80" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B80" t="s" s="2">
+      <c r="B80" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C80" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D80" t="s" s="2">
+      <c r="C80" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D80" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E80" t="s" s="2">
+      <c r="E80" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F80" t="s" s="2">
+      <c r="F80" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G80" t="s" s="2">
+      <c r="G80" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H80" t="s" s="2">
+      <c r="H80" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2476,28 +2488,28 @@
       </c>
     </row>
     <row r="82">
-      <c r="B82" t="s" s="2">
+      <c r="B82" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C82" t="s" s="2">
+      <c r="C82" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D82" t="s" s="2">
+      <c r="D82" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E82" t="s" s="2">
+      <c r="E82" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F82" t="s" s="2">
+      <c r="F82" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G82" t="s" s="2">
+      <c r="G82" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H82" t="s" s="2">
+      <c r="H82" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I82" t="s" s="2">
+      <c r="I82" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2643,10 +2655,10 @@
       <c r="I87">
         <f>((C87-C86)^2+(D87- D86)^2)^.5</f>
       </c>
-      <c r="J87" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K87" s="2" t="s">
+      <c r="J87" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K87" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L87" t="n">
@@ -2690,28 +2702,28 @@
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="s" s="2">
+      <c r="A89" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B89" t="s" s="2">
+      <c r="B89" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C89" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D89" t="s" s="2">
+      <c r="C89" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D89" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E89" t="s" s="2">
+      <c r="E89" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F89" t="s" s="2">
+      <c r="F89" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G89" t="s" s="2">
+      <c r="G89" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H89" t="s" s="2">
+      <c r="H89" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2736,28 +2748,28 @@
       </c>
     </row>
     <row r="91">
-      <c r="B91" t="s" s="2">
+      <c r="B91" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C91" t="s" s="2">
+      <c r="C91" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D91" t="s" s="2">
+      <c r="D91" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E91" t="s" s="2">
+      <c r="E91" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F91" t="s" s="2">
+      <c r="F91" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G91" t="s" s="2">
+      <c r="G91" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H91" t="s" s="2">
+      <c r="H91" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I91" t="s" s="2">
+      <c r="I91" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2903,10 +2915,10 @@
       <c r="I96">
         <f>((C96-C95)^2+(D96- D95)^2)^.5</f>
       </c>
-      <c r="J96" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K96" s="2" t="s">
+      <c r="J96" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K96" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L96" t="n">
@@ -2950,28 +2962,28 @@
       </c>
     </row>
     <row r="98">
-      <c r="A98" t="s" s="2">
+      <c r="A98" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B98" t="s" s="2">
+      <c r="B98" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C98" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D98" t="s" s="2">
+      <c r="C98" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D98" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E98" t="s" s="2">
+      <c r="E98" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F98" t="s" s="2">
+      <c r="F98" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G98" t="s" s="2">
+      <c r="G98" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H98" t="s" s="2">
+      <c r="H98" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2996,28 +3008,28 @@
       </c>
     </row>
     <row r="100">
-      <c r="B100" t="s" s="2">
+      <c r="B100" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C100" t="s" s="2">
+      <c r="C100" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D100" t="s" s="2">
+      <c r="D100" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E100" t="s" s="2">
+      <c r="E100" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F100" t="s" s="2">
+      <c r="F100" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G100" t="s" s="2">
+      <c r="G100" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H100" t="s" s="2">
+      <c r="H100" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I100" t="s" s="2">
+      <c r="I100" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3163,10 +3175,10 @@
       <c r="I105">
         <f>((C105-C104)^2+(D105- D104)^2)^.5</f>
       </c>
-      <c r="J105" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K105" s="2" t="s">
+      <c r="J105" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K105" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L105" t="n">
@@ -3210,28 +3222,28 @@
       </c>
     </row>
     <row r="107">
-      <c r="A107" t="s" s="2">
+      <c r="A107" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B107" t="s" s="2">
+      <c r="B107" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C107" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D107" t="s" s="2">
+      <c r="C107" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D107" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E107" t="s" s="2">
+      <c r="E107" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F107" t="s" s="2">
+      <c r="F107" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G107" t="s" s="2">
+      <c r="G107" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H107" t="s" s="2">
+      <c r="H107" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3256,28 +3268,28 @@
       </c>
     </row>
     <row r="109">
-      <c r="B109" t="s" s="2">
+      <c r="B109" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C109" t="s" s="2">
+      <c r="C109" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D109" t="s" s="2">
+      <c r="D109" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E109" t="s" s="2">
+      <c r="E109" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F109" t="s" s="2">
+      <c r="F109" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G109" t="s" s="2">
+      <c r="G109" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H109" t="s" s="2">
+      <c r="H109" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I109" t="s" s="2">
+      <c r="I109" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3365,10 +3377,10 @@
       <c r="I112">
         <f>((C112-C111)^2+(D112- D111)^2)^.5</f>
       </c>
-      <c r="J112" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K112" s="2" t="s">
+      <c r="J112" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K112" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L112" t="n">
@@ -3412,28 +3424,28 @@
       </c>
     </row>
     <row r="114">
-      <c r="A114" t="s" s="2">
+      <c r="A114" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B114" t="s" s="2">
+      <c r="B114" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C114" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D114" t="s" s="2">
+      <c r="C114" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D114" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E114" t="s" s="2">
+      <c r="E114" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F114" t="s" s="2">
+      <c r="F114" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G114" t="s" s="2">
+      <c r="G114" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H114" t="s" s="2">
+      <c r="H114" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3458,28 +3470,28 @@
       </c>
     </row>
     <row r="116">
-      <c r="B116" t="s" s="2">
+      <c r="B116" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C116" t="s" s="2">
+      <c r="C116" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D116" t="s" s="2">
+      <c r="D116" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E116" t="s" s="2">
+      <c r="E116" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F116" t="s" s="2">
+      <c r="F116" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G116" t="s" s="2">
+      <c r="G116" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H116" t="s" s="2">
+      <c r="H116" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I116" t="s" s="2">
+      <c r="I116" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3567,10 +3579,10 @@
       <c r="I119">
         <f>((C119-C118)^2+(D119- D118)^2)^.5</f>
       </c>
-      <c r="J119" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K119" s="2" t="s">
+      <c r="J119" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K119" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L119" t="n">
@@ -3614,28 +3626,28 @@
       </c>
     </row>
     <row r="121">
-      <c r="A121" t="s" s="2">
+      <c r="A121" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B121" t="s" s="2">
+      <c r="B121" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C121" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D121" t="s" s="2">
+      <c r="C121" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D121" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E121" t="s" s="2">
+      <c r="E121" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F121" t="s" s="2">
+      <c r="F121" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G121" t="s" s="2">
+      <c r="G121" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H121" t="s" s="2">
+      <c r="H121" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3660,28 +3672,28 @@
       </c>
     </row>
     <row r="123">
-      <c r="B123" t="s" s="2">
+      <c r="B123" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C123" t="s" s="2">
+      <c r="C123" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D123" t="s" s="2">
+      <c r="D123" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E123" t="s" s="2">
+      <c r="E123" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F123" t="s" s="2">
+      <c r="F123" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G123" t="s" s="2">
+      <c r="G123" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H123" t="s" s="2">
+      <c r="H123" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I123" t="s" s="2">
+      <c r="I123" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3798,10 +3810,10 @@
       <c r="I127">
         <f>((C127-C126)^2+(D127- D126)^2)^.5</f>
       </c>
-      <c r="J127" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K127" s="2" t="s">
+      <c r="J127" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K127" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L127" t="n">
@@ -3845,28 +3857,28 @@
       </c>
     </row>
     <row r="129">
-      <c r="A129" t="s" s="2">
+      <c r="A129" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B129" t="s" s="2">
+      <c r="B129" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C129" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D129" t="s" s="2">
+      <c r="C129" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D129" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E129" t="s" s="2">
+      <c r="E129" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F129" t="s" s="2">
+      <c r="F129" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G129" t="s" s="2">
+      <c r="G129" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H129" t="s" s="2">
+      <c r="H129" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3891,28 +3903,28 @@
       </c>
     </row>
     <row r="131">
-      <c r="B131" t="s" s="2">
+      <c r="B131" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C131" t="s" s="2">
+      <c r="C131" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D131" t="s" s="2">
+      <c r="D131" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E131" t="s" s="2">
+      <c r="E131" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F131" t="s" s="2">
+      <c r="F131" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G131" t="s" s="2">
+      <c r="G131" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H131" t="s" s="2">
+      <c r="H131" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I131" t="s" s="2">
+      <c r="I131" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3971,10 +3983,10 @@
       <c r="I133">
         <f>((C133-C132)^2+(D133- D132)^2)^.5</f>
       </c>
-      <c r="J133" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K133" s="2" t="s">
+      <c r="J133" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K133" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L133" t="n">
@@ -4018,28 +4030,28 @@
       </c>
     </row>
     <row r="135">
-      <c r="A135" t="s" s="2">
+      <c r="A135" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B135" t="s" s="2">
+      <c r="B135" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C135" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D135" t="s" s="2">
+      <c r="C135" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D135" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E135" t="s" s="2">
+      <c r="E135" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F135" t="s" s="2">
+      <c r="F135" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G135" t="s" s="2">
+      <c r="G135" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H135" t="s" s="2">
+      <c r="H135" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4064,28 +4076,28 @@
       </c>
     </row>
     <row r="137">
-      <c r="B137" t="s" s="2">
+      <c r="B137" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C137" t="s" s="2">
+      <c r="C137" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D137" t="s" s="2">
+      <c r="D137" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E137" t="s" s="2">
+      <c r="E137" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F137" t="s" s="2">
+      <c r="F137" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G137" t="s" s="2">
+      <c r="G137" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H137" t="s" s="2">
+      <c r="H137" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I137" t="s" s="2">
+      <c r="I137" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4173,10 +4185,10 @@
       <c r="I140">
         <f>((C140-C139)^2+(D140- D139)^2)^.5</f>
       </c>
-      <c r="J140" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K140" s="2" t="s">
+      <c r="J140" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K140" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L140" t="n">
@@ -4220,28 +4232,28 @@
       </c>
     </row>
     <row r="142">
-      <c r="A142" t="s" s="2">
+      <c r="A142" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B142" t="s" s="2">
+      <c r="B142" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C142" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D142" t="s" s="2">
+      <c r="C142" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D142" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E142" t="s" s="2">
+      <c r="E142" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F142" t="s" s="2">
+      <c r="F142" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G142" t="s" s="2">
+      <c r="G142" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H142" t="s" s="2">
+      <c r="H142" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4266,28 +4278,28 @@
       </c>
     </row>
     <row r="144">
-      <c r="B144" t="s" s="2">
+      <c r="B144" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C144" t="s" s="2">
+      <c r="C144" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D144" t="s" s="2">
+      <c r="D144" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E144" t="s" s="2">
+      <c r="E144" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F144" t="s" s="2">
+      <c r="F144" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G144" t="s" s="2">
+      <c r="G144" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H144" t="s" s="2">
+      <c r="H144" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I144" t="s" s="2">
+      <c r="I144" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4346,10 +4358,10 @@
       <c r="I146">
         <f>((C146-C145)^2+(D146- D145)^2)^.5</f>
       </c>
-      <c r="J146" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K146" s="2" t="s">
+      <c r="J146" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K146" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L146" t="n">
@@ -4393,28 +4405,28 @@
       </c>
     </row>
     <row r="148">
-      <c r="A148" t="s" s="2">
+      <c r="A148" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B148" t="s" s="2">
+      <c r="B148" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C148" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D148" t="s" s="2">
+      <c r="C148" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D148" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E148" t="s" s="2">
+      <c r="E148" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F148" t="s" s="2">
+      <c r="F148" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G148" t="s" s="2">
+      <c r="G148" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H148" t="s" s="2">
+      <c r="H148" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4439,28 +4451,28 @@
       </c>
     </row>
     <row r="150">
-      <c r="B150" t="s" s="2">
+      <c r="B150" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C150" t="s" s="2">
+      <c r="C150" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D150" t="s" s="2">
+      <c r="D150" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E150" t="s" s="2">
+      <c r="E150" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F150" t="s" s="2">
+      <c r="F150" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G150" t="s" s="2">
+      <c r="G150" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H150" t="s" s="2">
+      <c r="H150" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I150" t="s" s="2">
+      <c r="I150" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4577,10 +4589,10 @@
       <c r="I154">
         <f>((C154-C153)^2+(D154- D153)^2)^.5</f>
       </c>
-      <c r="J154" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K154" s="2" t="s">
+      <c r="J154" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K154" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L154" t="n">
@@ -4624,28 +4636,28 @@
       </c>
     </row>
     <row r="156">
-      <c r="A156" t="s" s="2">
+      <c r="A156" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B156" t="s" s="2">
+      <c r="B156" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C156" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D156" t="s" s="2">
+      <c r="C156" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D156" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E156" t="s" s="2">
+      <c r="E156" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F156" t="s" s="2">
+      <c r="F156" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G156" t="s" s="2">
+      <c r="G156" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H156" t="s" s="2">
+      <c r="H156" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4670,28 +4682,28 @@
       </c>
     </row>
     <row r="158">
-      <c r="B158" t="s" s="2">
+      <c r="B158" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C158" t="s" s="2">
+      <c r="C158" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D158" t="s" s="2">
+      <c r="D158" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E158" t="s" s="2">
+      <c r="E158" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F158" t="s" s="2">
+      <c r="F158" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G158" t="s" s="2">
+      <c r="G158" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H158" t="s" s="2">
+      <c r="H158" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I158" t="s" s="2">
+      <c r="I158" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4808,10 +4820,10 @@
       <c r="I162">
         <f>((C162-C161)^2+(D162- D161)^2)^.5</f>
       </c>
-      <c r="J162" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K162" s="2" t="s">
+      <c r="J162" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K162" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L162" t="n">
@@ -4855,28 +4867,28 @@
       </c>
     </row>
     <row r="164">
-      <c r="A164" t="s" s="2">
+      <c r="A164" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B164" t="s" s="2">
+      <c r="B164" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C164" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D164" t="s" s="2">
+      <c r="C164" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D164" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E164" t="s" s="2">
+      <c r="E164" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F164" t="s" s="2">
+      <c r="F164" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G164" t="s" s="2">
+      <c r="G164" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H164" t="s" s="2">
+      <c r="H164" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4901,28 +4913,28 @@
       </c>
     </row>
     <row r="166">
-      <c r="B166" t="s" s="2">
+      <c r="B166" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C166" t="s" s="2">
+      <c r="C166" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D166" t="s" s="2">
+      <c r="D166" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E166" t="s" s="2">
+      <c r="E166" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F166" t="s" s="2">
+      <c r="F166" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G166" t="s" s="2">
+      <c r="G166" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H166" t="s" s="2">
+      <c r="H166" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I166" t="s" s="2">
+      <c r="I166" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5010,10 +5022,10 @@
       <c r="I169">
         <f>((C169-C168)^2+(D169- D168)^2)^.5</f>
       </c>
-      <c r="J169" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K169" s="2" t="s">
+      <c r="J169" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K169" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L169" t="n">
@@ -5057,28 +5069,28 @@
       </c>
     </row>
     <row r="171">
-      <c r="A171" t="s" s="2">
+      <c r="A171" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B171" t="s" s="2">
+      <c r="B171" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C171" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D171" t="s" s="2">
+      <c r="C171" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D171" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E171" t="s" s="2">
+      <c r="E171" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F171" t="s" s="2">
+      <c r="F171" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G171" t="s" s="2">
+      <c r="G171" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H171" t="s" s="2">
+      <c r="H171" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5103,28 +5115,28 @@
       </c>
     </row>
     <row r="173">
-      <c r="B173" t="s" s="2">
+      <c r="B173" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C173" t="s" s="2">
+      <c r="C173" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D173" t="s" s="2">
+      <c r="D173" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E173" t="s" s="2">
+      <c r="E173" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F173" t="s" s="2">
+      <c r="F173" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G173" t="s" s="2">
+      <c r="G173" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H173" t="s" s="2">
+      <c r="H173" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I173" t="s" s="2">
+      <c r="I173" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5241,10 +5253,10 @@
       <c r="I177">
         <f>((C177-C176)^2+(D177- D176)^2)^.5</f>
       </c>
-      <c r="J177" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K177" s="2" t="s">
+      <c r="J177" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K177" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L177" t="n">
@@ -5288,28 +5300,28 @@
       </c>
     </row>
     <row r="179">
-      <c r="A179" t="s" s="2">
+      <c r="A179" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B179" t="s" s="2">
+      <c r="B179" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C179" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D179" t="s" s="2">
+      <c r="C179" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D179" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E179" t="s" s="2">
+      <c r="E179" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F179" t="s" s="2">
+      <c r="F179" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G179" t="s" s="2">
+      <c r="G179" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H179" t="s" s="2">
+      <c r="H179" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5334,28 +5346,28 @@
       </c>
     </row>
     <row r="181">
-      <c r="B181" t="s" s="2">
+      <c r="B181" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C181" t="s" s="2">
+      <c r="C181" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D181" t="s" s="2">
+      <c r="D181" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E181" t="s" s="2">
+      <c r="E181" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F181" t="s" s="2">
+      <c r="F181" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G181" t="s" s="2">
+      <c r="G181" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H181" t="s" s="2">
+      <c r="H181" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I181" t="s" s="2">
+      <c r="I181" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5443,10 +5455,10 @@
       <c r="I184">
         <f>((C184-C183)^2+(D184- D183)^2)^.5</f>
       </c>
-      <c r="J184" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K184" s="2" t="s">
+      <c r="J184" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K184" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L184" t="n">
@@ -5490,28 +5502,28 @@
       </c>
     </row>
     <row r="186">
-      <c r="A186" t="s" s="2">
+      <c r="A186" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B186" t="s" s="2">
+      <c r="B186" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C186" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D186" t="s" s="2">
+      <c r="C186" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D186" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E186" t="s" s="2">
+      <c r="E186" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F186" t="s" s="2">
+      <c r="F186" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G186" t="s" s="2">
+      <c r="G186" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H186" t="s" s="2">
+      <c r="H186" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5536,28 +5548,28 @@
       </c>
     </row>
     <row r="188">
-      <c r="B188" t="s" s="2">
+      <c r="B188" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C188" t="s" s="2">
+      <c r="C188" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D188" t="s" s="2">
+      <c r="D188" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E188" t="s" s="2">
+      <c r="E188" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F188" t="s" s="2">
+      <c r="F188" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G188" t="s" s="2">
+      <c r="G188" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H188" t="s" s="2">
+      <c r="H188" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I188" t="s" s="2">
+      <c r="I188" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5674,10 +5686,10 @@
       <c r="I192">
         <f>((C192-C191)^2+(D192- D191)^2)^.5</f>
       </c>
-      <c r="J192" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K192" s="2" t="s">
+      <c r="J192" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K192" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L192" t="n">
@@ -5721,28 +5733,28 @@
       </c>
     </row>
     <row r="194">
-      <c r="A194" t="s" s="2">
+      <c r="A194" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B194" t="s" s="2">
+      <c r="B194" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C194" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D194" t="s" s="2">
+      <c r="C194" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D194" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E194" t="s" s="2">
+      <c r="E194" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F194" t="s" s="2">
+      <c r="F194" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G194" t="s" s="2">
+      <c r="G194" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H194" t="s" s="2">
+      <c r="H194" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5767,28 +5779,28 @@
       </c>
     </row>
     <row r="196">
-      <c r="B196" t="s" s="2">
+      <c r="B196" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C196" t="s" s="2">
+      <c r="C196" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D196" t="s" s="2">
+      <c r="D196" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E196" t="s" s="2">
+      <c r="E196" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F196" t="s" s="2">
+      <c r="F196" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G196" t="s" s="2">
+      <c r="G196" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H196" t="s" s="2">
+      <c r="H196" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I196" t="s" s="2">
+      <c r="I196" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5847,10 +5859,10 @@
       <c r="I198">
         <f>((C198-C197)^2+(D198- D197)^2)^.5</f>
       </c>
-      <c r="J198" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K198" s="2" t="s">
+      <c r="J198" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K198" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L198" t="n">
@@ -5894,28 +5906,28 @@
       </c>
     </row>
     <row r="200">
-      <c r="A200" t="s" s="2">
+      <c r="A200" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B200" t="s" s="2">
+      <c r="B200" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C200" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D200" t="s" s="2">
+      <c r="C200" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D200" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E200" t="s" s="2">
+      <c r="E200" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F200" t="s" s="2">
+      <c r="F200" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G200" t="s" s="2">
+      <c r="G200" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H200" t="s" s="2">
+      <c r="H200" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5940,28 +5952,28 @@
       </c>
     </row>
     <row r="202">
-      <c r="B202" t="s" s="2">
+      <c r="B202" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C202" t="s" s="2">
+      <c r="C202" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D202" t="s" s="2">
+      <c r="D202" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E202" t="s" s="2">
+      <c r="E202" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F202" t="s" s="2">
+      <c r="F202" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G202" t="s" s="2">
+      <c r="G202" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H202" t="s" s="2">
+      <c r="H202" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I202" t="s" s="2">
+      <c r="I202" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6136,10 +6148,10 @@
       <c r="I208">
         <f>((C208-C207)^2+(D208- D207)^2)^.5</f>
       </c>
-      <c r="J208" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K208" s="2" t="s">
+      <c r="J208" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K208" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L208" t="n">
@@ -6183,28 +6195,28 @@
       </c>
     </row>
     <row r="210">
-      <c r="A210" t="s" s="2">
+      <c r="A210" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B210" t="s" s="2">
+      <c r="B210" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C210" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D210" t="s" s="2">
+      <c r="C210" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D210" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E210" t="s" s="2">
+      <c r="E210" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F210" t="s" s="2">
+      <c r="F210" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G210" t="s" s="2">
+      <c r="G210" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H210" t="s" s="2">
+      <c r="H210" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6229,28 +6241,28 @@
       </c>
     </row>
     <row r="212">
-      <c r="B212" t="s" s="2">
+      <c r="B212" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C212" t="s" s="2">
+      <c r="C212" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D212" t="s" s="2">
+      <c r="D212" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E212" t="s" s="2">
+      <c r="E212" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F212" t="s" s="2">
+      <c r="F212" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G212" t="s" s="2">
+      <c r="G212" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H212" t="s" s="2">
+      <c r="H212" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I212" t="s" s="2">
+      <c r="I212" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6309,10 +6321,10 @@
       <c r="I214">
         <f>((C214-C213)^2+(D214- D213)^2)^.5</f>
       </c>
-      <c r="J214" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K214" s="2" t="s">
+      <c r="J214" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K214" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L214" t="n">
@@ -6356,28 +6368,28 @@
       </c>
     </row>
     <row r="216">
-      <c r="A216" t="s" s="2">
+      <c r="A216" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B216" t="s" s="2">
+      <c r="B216" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C216" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D216" t="s" s="2">
+      <c r="C216" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D216" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E216" t="s" s="2">
+      <c r="E216" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F216" t="s" s="2">
+      <c r="F216" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G216" t="s" s="2">
+      <c r="G216" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H216" t="s" s="2">
+      <c r="H216" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6402,28 +6414,28 @@
       </c>
     </row>
     <row r="218">
-      <c r="B218" t="s" s="2">
+      <c r="B218" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C218" t="s" s="2">
+      <c r="C218" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D218" t="s" s="2">
+      <c r="D218" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E218" t="s" s="2">
+      <c r="E218" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F218" t="s" s="2">
+      <c r="F218" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G218" t="s" s="2">
+      <c r="G218" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H218" t="s" s="2">
+      <c r="H218" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I218" t="s" s="2">
+      <c r="I218" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6511,10 +6523,10 @@
       <c r="I221">
         <f>((C221-C220)^2+(D221- D220)^2)^.5</f>
       </c>
-      <c r="J221" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K221" s="2" t="s">
+      <c r="J221" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K221" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L221" t="n">
@@ -6558,28 +6570,28 @@
       </c>
     </row>
     <row r="223">
-      <c r="A223" t="s" s="2">
+      <c r="A223" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B223" t="s" s="2">
+      <c r="B223" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C223" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D223" t="s" s="2">
+      <c r="C223" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D223" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E223" t="s" s="2">
+      <c r="E223" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F223" t="s" s="2">
+      <c r="F223" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G223" t="s" s="2">
+      <c r="G223" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H223" t="s" s="2">
+      <c r="H223" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6604,28 +6616,28 @@
       </c>
     </row>
     <row r="225">
-      <c r="B225" t="s" s="2">
+      <c r="B225" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C225" t="s" s="2">
+      <c r="C225" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D225" t="s" s="2">
+      <c r="D225" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E225" t="s" s="2">
+      <c r="E225" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F225" t="s" s="2">
+      <c r="F225" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G225" t="s" s="2">
+      <c r="G225" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H225" t="s" s="2">
+      <c r="H225" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I225" t="s" s="2">
+      <c r="I225" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6742,10 +6754,10 @@
       <c r="I229">
         <f>((C229-C228)^2+(D229- D228)^2)^.5</f>
       </c>
-      <c r="J229" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K229" s="2" t="s">
+      <c r="J229" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K229" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L229" t="n">
@@ -6789,28 +6801,28 @@
       </c>
     </row>
     <row r="231">
-      <c r="A231" t="s" s="2">
+      <c r="A231" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B231" t="s" s="2">
+      <c r="B231" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C231" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D231" t="s" s="2">
+      <c r="C231" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D231" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E231" t="s" s="2">
+      <c r="E231" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F231" t="s" s="2">
+      <c r="F231" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G231" t="s" s="2">
+      <c r="G231" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H231" t="s" s="2">
+      <c r="H231" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6835,28 +6847,28 @@
       </c>
     </row>
     <row r="233">
-      <c r="B233" t="s" s="2">
+      <c r="B233" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C233" t="s" s="2">
+      <c r="C233" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D233" t="s" s="2">
+      <c r="D233" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E233" t="s" s="2">
+      <c r="E233" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F233" t="s" s="2">
+      <c r="F233" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G233" t="s" s="2">
+      <c r="G233" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H233" t="s" s="2">
+      <c r="H233" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I233" t="s" s="2">
+      <c r="I233" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7002,10 +7014,10 @@
       <c r="I238">
         <f>((C238-C237)^2+(D238- D237)^2)^.5</f>
       </c>
-      <c r="J238" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K238" s="2" t="s">
+      <c r="J238" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K238" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L238" t="n">
@@ -7049,28 +7061,28 @@
       </c>
     </row>
     <row r="240">
-      <c r="A240" t="s" s="2">
+      <c r="A240" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B240" t="s" s="2">
+      <c r="B240" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C240" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D240" t="s" s="2">
+      <c r="C240" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D240" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E240" t="s" s="2">
+      <c r="E240" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F240" t="s" s="2">
+      <c r="F240" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G240" t="s" s="2">
+      <c r="G240" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H240" t="s" s="2">
+      <c r="H240" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7095,28 +7107,28 @@
       </c>
     </row>
     <row r="242">
-      <c r="B242" t="s" s="2">
+      <c r="B242" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C242" t="s" s="2">
+      <c r="C242" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D242" t="s" s="2">
+      <c r="D242" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E242" t="s" s="2">
+      <c r="E242" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F242" t="s" s="2">
+      <c r="F242" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G242" t="s" s="2">
+      <c r="G242" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H242" t="s" s="2">
+      <c r="H242" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I242" t="s" s="2">
+      <c r="I242" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7175,10 +7187,10 @@
       <c r="I244">
         <f>((C244-C243)^2+(D244- D243)^2)^.5</f>
       </c>
-      <c r="J244" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K244" s="2" t="s">
+      <c r="J244" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K244" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L244" t="n">
@@ -7222,28 +7234,28 @@
       </c>
     </row>
     <row r="246">
-      <c r="A246" t="s" s="2">
+      <c r="A246" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B246" t="s" s="2">
+      <c r="B246" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C246" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D246" t="s" s="2">
+      <c r="C246" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D246" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E246" t="s" s="2">
+      <c r="E246" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F246" t="s" s="2">
+      <c r="F246" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G246" t="s" s="2">
+      <c r="G246" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H246" t="s" s="2">
+      <c r="H246" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7268,28 +7280,28 @@
       </c>
     </row>
     <row r="248">
-      <c r="B248" t="s" s="2">
+      <c r="B248" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C248" t="s" s="2">
+      <c r="C248" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D248" t="s" s="2">
+      <c r="D248" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E248" t="s" s="2">
+      <c r="E248" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F248" t="s" s="2">
+      <c r="F248" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G248" t="s" s="2">
+      <c r="G248" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H248" t="s" s="2">
+      <c r="H248" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I248" t="s" s="2">
+      <c r="I248" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7348,10 +7360,10 @@
       <c r="I250">
         <f>((C250-C249)^2+(D250- D249)^2)^.5</f>
       </c>
-      <c r="J250" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K250" s="2" t="s">
+      <c r="J250" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K250" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L250" t="n">
@@ -7395,28 +7407,28 @@
       </c>
     </row>
     <row r="252">
-      <c r="A252" t="s" s="2">
+      <c r="A252" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B252" t="s" s="2">
+      <c r="B252" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C252" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D252" t="s" s="2">
+      <c r="C252" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D252" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E252" t="s" s="2">
+      <c r="E252" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F252" t="s" s="2">
+      <c r="F252" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G252" t="s" s="2">
+      <c r="G252" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H252" t="s" s="2">
+      <c r="H252" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7441,28 +7453,28 @@
       </c>
     </row>
     <row r="254">
-      <c r="B254" t="s" s="2">
+      <c r="B254" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C254" t="s" s="2">
+      <c r="C254" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D254" t="s" s="2">
+      <c r="D254" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E254" t="s" s="2">
+      <c r="E254" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F254" t="s" s="2">
+      <c r="F254" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G254" t="s" s="2">
+      <c r="G254" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H254" t="s" s="2">
+      <c r="H254" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I254" t="s" s="2">
+      <c r="I254" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7666,10 +7678,10 @@
       <c r="I261">
         <f>((C261-C260)^2+(D261- D260)^2)^.5</f>
       </c>
-      <c r="J261" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K261" s="2" t="s">
+      <c r="J261" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K261" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L261" t="n">
@@ -7713,28 +7725,28 @@
       </c>
     </row>
     <row r="263">
-      <c r="A263" t="s" s="2">
+      <c r="A263" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B263" t="s" s="2">
+      <c r="B263" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C263" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D263" t="s" s="2">
+      <c r="C263" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D263" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E263" t="s" s="2">
+      <c r="E263" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F263" t="s" s="2">
+      <c r="F263" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G263" t="s" s="2">
+      <c r="G263" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H263" t="s" s="2">
+      <c r="H263" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7759,28 +7771,28 @@
       </c>
     </row>
     <row r="265">
-      <c r="B265" t="s" s="2">
+      <c r="B265" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C265" t="s" s="2">
+      <c r="C265" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D265" t="s" s="2">
+      <c r="D265" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E265" t="s" s="2">
+      <c r="E265" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F265" t="s" s="2">
+      <c r="F265" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G265" t="s" s="2">
+      <c r="G265" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H265" t="s" s="2">
+      <c r="H265" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I265" t="s" s="2">
+      <c r="I265" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7955,10 +7967,10 @@
       <c r="I271">
         <f>((C271-C270)^2+(D271- D270)^2)^.5</f>
       </c>
-      <c r="J271" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K271" s="2" t="s">
+      <c r="J271" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K271" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L271" t="n">
